--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7972.87720275504</v>
+        <v>1586602.563348253</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7972.87720275504</v>
+        <v>1586602.563348253</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28791.91040065124</v>
+        <v>1737965.440426674</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28791.91040065124</v>
+        <v>1737965.440426674</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265512183.989562</v>
+        <v>50304053.77676549</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11599.66207382887</v>
+        <v>1165885.695140918</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22459.22158447453</v>
+        <v>2204871.753415308</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33318.78109512018</v>
+        <v>3243857.8116897</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45330.39224890225</v>
+        <v>4220420.162035856</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57342.00340268431</v>
+        <v>5196982.512382014</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69353.61455646635</v>
+        <v>6173544.862728167</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81597.07189957226</v>
+        <v>7159109.630962214</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93795.29096183454</v>
+        <v>8135671.981308365</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105758.4169660861</v>
+        <v>9103105.840231271</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117654.7066233687</v>
+        <v>10084400.24245196</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>128641.3200054993</v>
+        <v>11122130.76044839</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>139627.9333876299</v>
+        <v>12159861.27844484</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>150614.5467697599</v>
+        <v>13197591.7964414</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>162623.5445902087</v>
+        <v>14174154.14678756</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174516.1307120722</v>
+        <v>15129021.58432847</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>143</v>
